--- a/data/trans_orig/P50A_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P50A_1-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>17113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10905</v>
+        <v>10001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26984</v>
+        <v>25942</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01834859886044202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01169254656209696</v>
+        <v>0.01072313048256057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02893109211011206</v>
+        <v>0.02781460667800998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -763,19 +763,19 @@
         <v>12456</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6120</v>
+        <v>6480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20678</v>
+        <v>22919</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01013687508243537</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004980740370277304</v>
+        <v>0.005273524630106564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01682763268609044</v>
+        <v>0.01865179320904296</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -784,19 +784,19 @@
         <v>29570</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19404</v>
+        <v>19541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43006</v>
+        <v>41341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01368025224596044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008976949789334139</v>
+        <v>0.009040741533087924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01989665577626261</v>
+        <v>0.01912644228585792</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>19570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11648</v>
+        <v>11385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29526</v>
+        <v>29599</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02098282452374613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01248909030014608</v>
+        <v>0.01220622823569019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03165692341551734</v>
+        <v>0.03173517749715277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -834,19 +834,19 @@
         <v>14662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7781</v>
+        <v>8290</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23847</v>
+        <v>24987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01193223935253194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006332199539623588</v>
+        <v>0.00674661032362563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01940654246645153</v>
+        <v>0.02033487236529213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -855,19 +855,19 @@
         <v>34233</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23987</v>
+        <v>24265</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47905</v>
+        <v>48030</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01583758708209278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01109769294261393</v>
+        <v>0.01122621253267933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02216316526142785</v>
+        <v>0.0222207517789293</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>15282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8932</v>
+        <v>8210</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26583</v>
+        <v>25418</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01638544972179722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009576653605026865</v>
+        <v>0.008802298268124455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02850210080141857</v>
+        <v>0.02725261685577089</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -905,19 +905,19 @@
         <v>23624</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15549</v>
+        <v>15329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34547</v>
+        <v>34712</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01922508811010666</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01265348620027477</v>
+        <v>0.01247450898862803</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02811467843546283</v>
+        <v>0.02824908767334063</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -926,19 +926,19 @@
         <v>38906</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27772</v>
+        <v>26892</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52869</v>
+        <v>52010</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01799977779892042</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01284878822836144</v>
+        <v>0.01244133654432733</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02445951542277711</v>
+        <v>0.02406195305769172</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>880719</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>864711</v>
+        <v>866161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>893116</v>
+        <v>894056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9442831268940146</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9271200511793102</v>
+        <v>0.9286752512093495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9575750608306873</v>
+        <v>0.9585826446016829</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1098</v>
@@ -976,19 +976,19 @@
         <v>1178057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1163258</v>
+        <v>1162171</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1191098</v>
+        <v>1190918</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.958705797454926</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9466627354291371</v>
+        <v>0.9457775584369407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9693189835717366</v>
+        <v>0.9691725872255255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1917</v>
@@ -997,19 +997,19 @@
         <v>2058775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2037589</v>
+        <v>2037365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2078488</v>
+        <v>2075880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9524823828730263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9426804343935429</v>
+        <v>0.9425767358470739</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9616024932946896</v>
+        <v>0.9603958238011893</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>45802</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33800</v>
+        <v>33140</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>61394</v>
+        <v>60095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02363611966914864</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01744272852142819</v>
+        <v>0.01710201817466321</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03168283288029632</v>
+        <v>0.03101215804676069</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -1122,19 +1122,19 @@
         <v>25717</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16885</v>
+        <v>16655</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37552</v>
+        <v>37220</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01491109835356382</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00979008102266986</v>
+        <v>0.009656521581519065</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02177331351464596</v>
+        <v>0.02158073928343836</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>69</v>
@@ -1143,19 +1143,19 @@
         <v>71519</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>55541</v>
+        <v>54905</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>89156</v>
+        <v>89756</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01952742900279441</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01516489772992421</v>
+        <v>0.01499114177178408</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0243430375397669</v>
+        <v>0.02450688898399007</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>47975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34989</v>
+        <v>36812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63080</v>
+        <v>64080</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0247578951996012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01805625457837817</v>
+        <v>0.01899688544499306</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03255247764097228</v>
+        <v>0.03306891492808277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1193,19 +1193,19 @@
         <v>33554</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23163</v>
+        <v>23089</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46038</v>
+        <v>46023</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01945491692898759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01343041827527275</v>
+        <v>0.0133874975648811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02669321203952876</v>
+        <v>0.02668501167300552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -1214,19 +1214,19 @@
         <v>81529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65519</v>
+        <v>65477</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101727</v>
+        <v>99785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02226067524606015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01788933269924636</v>
+        <v>0.01787780835741372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02777552389290038</v>
+        <v>0.02724523959180148</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>70225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54984</v>
+        <v>54309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90599</v>
+        <v>88371</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03623983482459062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02837448963615701</v>
+        <v>0.0280266230015142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04675421103710276</v>
+        <v>0.04560443615724488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -1264,19 +1264,19 @@
         <v>28719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19453</v>
+        <v>19722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41391</v>
+        <v>39819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01665175923833318</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01127916291135932</v>
+        <v>0.01143521275208811</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02399911034158297</v>
+        <v>0.02308759845813276</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -1285,19 +1285,19 @@
         <v>98944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80531</v>
+        <v>80995</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>122648</v>
+        <v>121697</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02701563462815791</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02198827436054849</v>
+        <v>0.0221149057138638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03348770628048484</v>
+        <v>0.03322799595176779</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>1773779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1744663</v>
+        <v>1747043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1797148</v>
+        <v>1797487</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9153661503066596</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9003405364300991</v>
+        <v>0.9015691025482286</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9274255561252895</v>
+        <v>0.9276008912167556</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1518</v>
@@ -1335,19 +1335,19 @@
         <v>1636701</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1617196</v>
+        <v>1617519</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1653316</v>
+        <v>1652713</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9489822254791154</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9376726786396914</v>
+        <v>0.9378601847585729</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9586156017791644</v>
+        <v>0.9582663566551143</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3192</v>
@@ -1356,19 +1356,19 @@
         <v>3410480</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3376861</v>
+        <v>3377578</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3438392</v>
+        <v>3440538</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9311962611229876</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9220167774256897</v>
+        <v>0.9222126238593441</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9388172519171908</v>
+        <v>0.9394031447470325</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>9965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4979</v>
+        <v>4967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18677</v>
+        <v>19016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02080410126806584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01039567557327432</v>
+        <v>0.01037052891776323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03899125327095612</v>
+        <v>0.03970011193864009</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1481,19 +1481,19 @@
         <v>3114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9190</v>
+        <v>9634</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006870056470338043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002207655275534163</v>
+        <v>0.002230164361981738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02027761765625217</v>
+        <v>0.02125790525148429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1502,19 +1502,19 @@
         <v>13079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6505</v>
+        <v>6974</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22426</v>
+        <v>23720</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01402977441542344</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00697767969072926</v>
+        <v>0.007480930242917368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02405652511166338</v>
+        <v>0.0254446582390235</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>5414</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1054</v>
+        <v>1867</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15726</v>
+        <v>14495</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01130365578729295</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002200259262525788</v>
+        <v>0.003896717972348392</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03283182392853513</v>
+        <v>0.03026025975662198</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -1552,19 +1552,19 @@
         <v>3887</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>968</v>
+        <v>1002</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9805</v>
+        <v>9797</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.008577539814080359</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.002136952138915872</v>
+        <v>0.002209926007706109</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02163505879470354</v>
+        <v>0.0216175917014625</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -1573,19 +1573,19 @@
         <v>9302</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3990</v>
+        <v>3964</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17624</v>
+        <v>19308</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.009978297579476447</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004280093949371636</v>
+        <v>0.004252775280470968</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01890585486590619</v>
+        <v>0.02071209580595255</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>11589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6013</v>
+        <v>6462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18565</v>
+        <v>21307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02419344603533019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0125535478799933</v>
+        <v>0.01348983542037385</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03875845131990749</v>
+        <v>0.04448248454553269</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6622</v>
+        <v>6791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004272603086383409</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01461132949463886</v>
+        <v>0.01498320607487984</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1644,19 +1644,19 @@
         <v>13525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7688</v>
+        <v>7654</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22172</v>
+        <v>21931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01450851224364838</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008247522880579538</v>
+        <v>0.00821106258049987</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02378441879245237</v>
+        <v>0.02352583586667849</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>452027</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>439574</v>
+        <v>438465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>461029</v>
+        <v>460920</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.943698796909311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9177000550758565</v>
+        <v>0.9153862653832859</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9624930414602347</v>
+        <v>0.9622650047115666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>398</v>
@@ -1694,19 +1694,19 @@
         <v>444275</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>437199</v>
+        <v>437403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>449229</v>
+        <v>449158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9802798006291982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9646676532719963</v>
+        <v>0.9651173673963305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9912121061224023</v>
+        <v>0.9910545771668082</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>810</v>
@@ -1715,19 +1715,19 @@
         <v>896302</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>882606</v>
+        <v>883193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>907089</v>
+        <v>907335</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9614834157614517</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9467913516580618</v>
+        <v>0.9474212803374683</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9730556063392375</v>
+        <v>0.973319680394183</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>72880</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56428</v>
+        <v>57747</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90953</v>
+        <v>91701</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02175876845489564</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01684675666302679</v>
+        <v>0.01724076948525722</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02715440915838652</v>
+        <v>0.02737791297893882</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1840,19 +1840,19 @@
         <v>41287</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30305</v>
+        <v>30303</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55950</v>
+        <v>55029</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0121192906192807</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008895757261664602</v>
+        <v>0.008895029598271882</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01642350555393552</v>
+        <v>0.01615322045839371</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -1861,19 +1861,19 @@
         <v>114167</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93875</v>
+        <v>94826</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137545</v>
+        <v>137315</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01689819529626438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01389470205021349</v>
+        <v>0.01403547584391932</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02035844238863457</v>
+        <v>0.02032438206809396</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>72960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58057</v>
+        <v>57575</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91338</v>
+        <v>89909</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0217826506289697</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01733323564474572</v>
+        <v>0.01718928137149424</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0272693090908694</v>
+        <v>0.02684272439669529</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -1911,19 +1911,19 @@
         <v>52103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38948</v>
+        <v>39410</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68957</v>
+        <v>68871</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01529440745367356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01143283754458491</v>
+        <v>0.01156844778229351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02024149013531434</v>
+        <v>0.02021640770283214</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>122</v>
@@ -1932,19 +1932,19 @@
         <v>125064</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104992</v>
+        <v>105271</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>148809</v>
+        <v>150024</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01851104389234763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01554022097330227</v>
+        <v>0.0155814568774599</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02202562632720396</v>
+        <v>0.02220547922823495</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>97096</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>79049</v>
+        <v>77403</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>119355</v>
+        <v>116716</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02898850402767972</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02360039498858156</v>
+        <v>0.0231090456040443</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03563414009266237</v>
+        <v>0.03484620844959641</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -1982,19 +1982,19 @@
         <v>54279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>41232</v>
+        <v>41431</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69881</v>
+        <v>69332</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01593309440398606</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01210316900600647</v>
+        <v>0.01216174717448837</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.020512684536664</v>
+        <v>0.02035164132486582</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>145</v>
@@ -2003,19 +2003,19 @@
         <v>151375</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>128347</v>
+        <v>126697</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>178461</v>
+        <v>176257</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02240549458733346</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01899696127532094</v>
+        <v>0.01875279127270676</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02641447757768954</v>
+        <v>0.02608831757155869</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>3106526</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3074608</v>
+        <v>3075390</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3138385</v>
+        <v>3134487</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.927470076888455</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9179407852275449</v>
+        <v>0.91817442246207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9369817558216234</v>
+        <v>0.935817994019135</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3014</v>
@@ -2053,19 +2053,19 @@
         <v>3259032</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3232215</v>
+        <v>3234222</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3278897</v>
+        <v>3280747</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9566532075230597</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9487813602543071</v>
+        <v>0.9493703106345286</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9624841402671651</v>
+        <v>0.9630272940346324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5919</v>
@@ -2074,19 +2074,19 @@
         <v>6365558</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6327934</v>
+        <v>6324471</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6402551</v>
+        <v>6401010</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9421852662240545</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9366163439383125</v>
+        <v>0.9361038756604263</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9476607179594055</v>
+        <v>0.9474326330230853</v>
       </c>
     </row>
     <row r="23">
@@ -2417,19 +2417,19 @@
         <v>4850</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1037</v>
+        <v>1078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11640</v>
+        <v>12163</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006786767158104244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00145136147206429</v>
+        <v>0.001509031903983721</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01629058637851827</v>
+        <v>0.01702169461522985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2438,19 +2438,19 @@
         <v>3956</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9807</v>
+        <v>9051</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004256392234737893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001066483076966338</v>
+        <v>0.001072567138189398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01055212128806597</v>
+        <v>0.009738980890727812</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2459,19 +2459,19 @@
         <v>8805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4087</v>
+        <v>3920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17833</v>
+        <v>17313</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005356264925097586</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002486450405965966</v>
+        <v>0.0023842663219011</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01084819716331374</v>
+        <v>0.01053153845290211</v>
       </c>
     </row>
     <row r="5">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5470</v>
+        <v>6508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001516466226412418</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.007654657577580209</v>
+        <v>0.009107605899948558</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5791</v>
+        <v>7711</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002054084309065861</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.006231244127320412</v>
+        <v>0.008296799559246268</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -2530,19 +2530,19 @@
         <v>2993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8056</v>
+        <v>8887</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001820398999630611</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0005599875030587165</v>
+        <v>0.0005626038602793055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004900373318906618</v>
+        <v>0.005405989407040666</v>
       </c>
     </row>
     <row r="6">
@@ -2559,19 +2559,19 @@
         <v>9805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4797</v>
+        <v>4434</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18183</v>
+        <v>16998</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01372193234822298</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006713739038246578</v>
+        <v>0.006205789750211078</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02544701196944654</v>
+        <v>0.02378845595161061</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -2580,19 +2580,19 @@
         <v>7621</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3012</v>
+        <v>3154</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14847</v>
+        <v>15114</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008200770173294934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00324140026681341</v>
+        <v>0.003393552464141935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01597543941018757</v>
+        <v>0.01626255562316234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -2601,19 +2601,19 @@
         <v>17426</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10345</v>
+        <v>10730</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26651</v>
+        <v>27783</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01060064200223777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006292644995155417</v>
+        <v>0.006527213532872124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01621206055989214</v>
+        <v>0.01690038326497506</v>
       </c>
     </row>
     <row r="7">
@@ -2630,19 +2630,19 @@
         <v>698815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>689353</v>
+        <v>689378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>705350</v>
+        <v>705725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9779748342672604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9647335190270284</v>
+        <v>0.9647688327766918</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9871209100167565</v>
+        <v>0.9876451032772464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>824</v>
@@ -2651,19 +2651,19 @@
         <v>915866</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>906714</v>
+        <v>907178</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>921824</v>
+        <v>922008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9854887532829013</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9756410738265877</v>
+        <v>0.9761405070902113</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9919000887718553</v>
+        <v>0.9920974025642805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1532</v>
@@ -2672,19 +2672,19 @@
         <v>1614681</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1601186</v>
+        <v>1601686</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1623325</v>
+        <v>1624431</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9822226940730341</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9740137347142892</v>
+        <v>0.9743180734554439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9874811229532646</v>
+        <v>0.9881535633718072</v>
       </c>
     </row>
     <row r="8">
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5494</v>
+        <v>5487</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.000535696756239786</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.002687647967993844</v>
+        <v>0.002683782715929179</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -2797,19 +2797,19 @@
         <v>5372</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1990</v>
+        <v>1925</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12065</v>
+        <v>12530</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002788607076156313</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001033280029993092</v>
+        <v>0.0009992732580680803</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006263374778328311</v>
+        <v>0.006504685103729882</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -2818,19 +2818,19 @@
         <v>6467</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2442</v>
+        <v>2532</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14868</v>
+        <v>13298</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001628674996359652</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006150437997412888</v>
+        <v>0.0006375904294324726</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003744518245210006</v>
+        <v>0.00334904039762567</v>
       </c>
     </row>
     <row r="10">
@@ -2847,19 +2847,19 @@
         <v>5893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2780</v>
+        <v>2804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12722</v>
+        <v>12776</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002882461522576628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001359922041997834</v>
+        <v>0.001371473348210667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006222919883093406</v>
+        <v>0.006249574441707568</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6199</v>
+        <v>6237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0004878441558910394</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.003218266510511054</v>
+        <v>0.003237739230552622</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2889,19 +2889,19 @@
         <v>6832</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2865</v>
+        <v>2859</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13677</v>
+        <v>13468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001720735442287087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007216377267317361</v>
+        <v>0.0007200768532692722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003444617841328242</v>
+        <v>0.003391902778911377</v>
       </c>
     </row>
     <row r="11">
@@ -2918,19 +2918,19 @@
         <v>27059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17884</v>
+        <v>17342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40078</v>
+        <v>39040</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01323611791719179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008747888512525823</v>
+        <v>0.008482857174281565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01960456120411337</v>
+        <v>0.01909694495073329</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -2939,19 +2939,19 @@
         <v>10768</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5802</v>
+        <v>5770</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19515</v>
+        <v>19128</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005589863614770707</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003012161741477934</v>
+        <v>0.00299540966328865</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0101305954953336</v>
+        <v>0.009929579293566923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>36</v>
@@ -2960,19 +2960,19 @@
         <v>37827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25979</v>
+        <v>26698</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>52108</v>
+        <v>51886</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009526609599400077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006542795657475349</v>
+        <v>0.00672376594883487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01312327007060192</v>
+        <v>0.01306739531449152</v>
       </c>
     </row>
     <row r="12">
@@ -2989,19 +2989,19 @@
         <v>2010284</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1995974</v>
+        <v>1996759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2020576</v>
+        <v>2020297</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9833457238039918</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9763457008371557</v>
+        <v>0.9767298313647461</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9883801802825702</v>
+        <v>0.9882436043362143</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1833</v>
@@ -3010,19 +3010,19 @@
         <v>1909248</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1899348</v>
+        <v>1899182</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1916436</v>
+        <v>1916232</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9911336851531819</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9859946977449764</v>
+        <v>0.9859084735287386</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9948654754147211</v>
+        <v>0.9947595037723684</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3721</v>
@@ -3031,19 +3031,19 @@
         <v>3919532</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3901979</v>
+        <v>3904916</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3932282</v>
+        <v>3932761</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9871239799619532</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9827034590300688</v>
+        <v>0.9834431100801319</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9903351724741548</v>
+        <v>0.9904557179996532</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5046</v>
+        <v>4997</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001849504064089474</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009278539020452907</v>
+        <v>0.009189140631529657</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5036</v>
+        <v>4994</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009262112879774082</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004638116204863697</v>
+        <v>0.004598896605731502</v>
       </c>
     </row>
     <row r="15">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5299</v>
+        <v>6605</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002248391627455089</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009776020768263933</v>
+        <v>0.01218454200468632</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5534</v>
+        <v>6107</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001122421836105631</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.005096195885455573</v>
+        <v>0.005623575831864191</v>
       </c>
     </row>
     <row r="16">
@@ -3261,19 +3261,19 @@
         <v>5036</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12520</v>
+        <v>14016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009290116682931197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001946655657212632</v>
+        <v>0.001960014139449428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02309550315372525</v>
+        <v>0.02585613590260489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5043</v>
+        <v>5813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001833269354644762</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009274432184317286</v>
+        <v>0.0106893362665547</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3303,7 +3303,7 @@
         <v>6033</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2063</v>
+        <v>2050</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>13852</v>
@@ -3312,10 +3312,10 @@
         <v>0.005555809577429778</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001899869194841181</v>
+        <v>0.001887423076733594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01275664297808993</v>
+        <v>0.01275638451618332</v>
       </c>
     </row>
     <row r="17">
@@ -3332,19 +3332,19 @@
         <v>535827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>528106</v>
+        <v>526670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>539982</v>
+        <v>539973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9884614916896137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9742171872872797</v>
+        <v>0.9715686350978486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961263629982158</v>
+        <v>0.9961092713290688</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>519</v>
@@ -3353,7 +3353,7 @@
         <v>541793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>537687</v>
+        <v>537549</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>543796</v>
@@ -3362,7 +3362,7 @@
         <v>0.9963172265812658</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9887667072233791</v>
+        <v>0.9885130983716147</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3374,19 +3374,19 @@
         <v>1077621</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1068853</v>
+        <v>1068898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1082634</v>
+        <v>1082439</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9923955572984872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9843218597180595</v>
+        <v>0.9843625899379432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9970121391639903</v>
+        <v>0.9968325500959785</v>
       </c>
     </row>
     <row r="18">
@@ -3478,19 +3478,19 @@
         <v>5945</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2081</v>
+        <v>2130</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13732</v>
+        <v>14324</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001800880233572485</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0006303389946206395</v>
+        <v>0.0006451782317610784</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.004159982493073788</v>
+        <v>0.004339265585674778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -3499,19 +3499,19 @@
         <v>10333</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4952</v>
+        <v>5359</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18518</v>
+        <v>19804</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003039648466097026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001456569708845924</v>
+        <v>0.001576540472079039</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005447258707121811</v>
+        <v>0.005825721335649616</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -3520,19 +3520,19 @@
         <v>16278</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9668</v>
+        <v>9330</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28021</v>
+        <v>27702</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002429370531539907</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001442950192320377</v>
+        <v>0.001392455211955978</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004181940394677413</v>
+        <v>0.004134314575343744</v>
       </c>
     </row>
     <row r="20">
@@ -3549,19 +3549,19 @@
         <v>8195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3864</v>
+        <v>3991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15326</v>
+        <v>15595</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002482641024741993</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001170655122920032</v>
+        <v>0.001209041858760648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004642969489834089</v>
+        <v>0.004724289428445603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -3570,19 +3570,19 @@
         <v>2849</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7675</v>
+        <v>8534</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0008379867485116999</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0002710354963669944</v>
+        <v>0.000272122820387636</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.002257764057385733</v>
+        <v>0.002510488726944618</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -3591,19 +3591,19 @@
         <v>11044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5846</v>
+        <v>5810</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19747</v>
+        <v>18288</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001648224037784835</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008724650078447757</v>
+        <v>0.000867137859638216</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.002947145836485292</v>
+        <v>0.002729331591938761</v>
       </c>
     </row>
     <row r="21">
@@ -3620,19 +3620,19 @@
         <v>41900</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29669</v>
+        <v>29285</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56860</v>
+        <v>56681</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01269327132186715</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008987866826749895</v>
+        <v>0.008871769910722398</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01722512655337854</v>
+        <v>0.0171710400918554</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -3641,19 +3641,19 @@
         <v>19386</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12020</v>
+        <v>12093</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29066</v>
+        <v>29369</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005702713728028213</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00353587646904415</v>
+        <v>0.003557390747363383</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.008550001114945515</v>
+        <v>0.008639219481865027</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>57</v>
@@ -3662,19 +3662,19 @@
         <v>61286</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46891</v>
+        <v>45941</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>79152</v>
+        <v>79825</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009146604956233479</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006998145240925798</v>
+        <v>0.006856405860895964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01181297249715964</v>
+        <v>0.0119133651550747</v>
       </c>
     </row>
     <row r="22">
@@ -3691,19 +3691,19 @@
         <v>3244926</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3228667</v>
+        <v>3228386</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3258566</v>
+        <v>3259237</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9830232074198184</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.97809768599502</v>
+        <v>0.9780123796840835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9871553486277816</v>
+        <v>0.9873586205951391</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3176</v>
@@ -3712,19 +3712,19 @@
         <v>3366907</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3353074</v>
+        <v>3354645</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3376641</v>
+        <v>3376266</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9904196510573631</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9863504844228611</v>
+        <v>0.9868127300092991</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9932831499909434</v>
+        <v>0.9931728409502482</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6263</v>
@@ -3733,19 +3733,19 @@
         <v>6611833</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6590298</v>
+        <v>6590019</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6628527</v>
+        <v>6629063</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9867758004744418</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9835617917055161</v>
+        <v>0.9835202043376061</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9892672089891705</v>
+        <v>0.989347342811405</v>
       </c>
     </row>
     <row r="23">
